--- a/logs/monkey/monkey_appName_correspondence.xlsx
+++ b/logs/monkey/monkey_appName_correspondence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashsvigirdhar/Desktop/DynamicAndroidMalwareAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashsvigirdhar/Desktop/DynamicAndroidMalwareAnalysis/logs/monkey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E0284-D922-B04B-BCED-17ABB46B6493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA1B920-6E14-6748-9E25-B8998F71BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="3720" windowWidth="25440" windowHeight="14900" xr2:uid="{0052B4B8-D588-1848-B2FD-BB2E6795C203}"/>
+    <workbookView xWindow="14820" yWindow="500" windowWidth="10760" windowHeight="15500" xr2:uid="{0052B4B8-D588-1848-B2FD-BB2E6795C203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="146">
   <si>
     <t>strace log filename</t>
   </si>
@@ -56,7 +56,424 @@
     <t>Adobe Reader</t>
   </si>
   <si>
-    <t>monkey_output.txt</t>
+    <t>001-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>002-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>003-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>004-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>005-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>006-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>007-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>008-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>009-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>010-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>011-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>012-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>013-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>014-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>015-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>016-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>017-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>018-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>019-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>020-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>021-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>022-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>023-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>024-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>025-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>026-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>027-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>028-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>029-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>030-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>031-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>032-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>033-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>034-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>035-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>036-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>037-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>038-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>039-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>040-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>041-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>042-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>043-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>044-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>045-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>046-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>047-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>048-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>049-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>050-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>051-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>052-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>053-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>054-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>055-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>056-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>057-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>058-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>059-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>060-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>061-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>062-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>063-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>064-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>065-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>066-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>067-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>068-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>069-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>070-monkey_output.txt</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Whisk</t>
+  </si>
+  <si>
+    <t>GoodReads</t>
+  </si>
+  <si>
+    <t>NinjaFight</t>
+  </si>
+  <si>
+    <t>USAPresidents</t>
+  </si>
+  <si>
+    <t>CallVoiceChanger</t>
+  </si>
+  <si>
+    <t>Whisk-2</t>
+  </si>
+  <si>
+    <t>BigOven-2</t>
+  </si>
+  <si>
+    <t>PCHealth-3</t>
+  </si>
+  <si>
+    <t>PCHealth-2</t>
+  </si>
+  <si>
+    <t>ZueiraVoice-2</t>
+  </si>
+  <si>
+    <t>LifeLabs-3</t>
+  </si>
+  <si>
+    <t>LifeLabs-2</t>
+  </si>
+  <si>
+    <t>PCHealth-1</t>
+  </si>
+  <si>
+    <t>VidMate-4</t>
+  </si>
+  <si>
+    <t>LifeLabs-1</t>
+  </si>
+  <si>
+    <t>ZueiraVoice-4</t>
+  </si>
+  <si>
+    <t>BigOven-1</t>
+  </si>
+  <si>
+    <t>BigOven-3</t>
+  </si>
+  <si>
+    <t>MaficFridge-3</t>
+  </si>
+  <si>
+    <t>MaficFridge-4</t>
+  </si>
+  <si>
+    <t>MaficFridge-1</t>
+  </si>
+  <si>
+    <t>VidMate-2</t>
+  </si>
+  <si>
+    <t>PCHealth-4</t>
+  </si>
+  <si>
+    <t>MaficFridge-2</t>
+  </si>
+  <si>
+    <t>VidMate-1</t>
+  </si>
+  <si>
+    <t>VidMate-3</t>
+  </si>
+  <si>
+    <t>Zapya-3</t>
+  </si>
+  <si>
+    <t>Zapya-1</t>
+  </si>
+  <si>
+    <t>Zapya-2</t>
+  </si>
+  <si>
+    <t>WhatsAllBusiness-3</t>
+  </si>
+  <si>
+    <t>WhatsAllBusiness-4</t>
+  </si>
+  <si>
+    <t>WhatsAllBusiness-1</t>
+  </si>
+  <si>
+    <t>FIXD-2</t>
+  </si>
+  <si>
+    <t>FIXD-1</t>
+  </si>
+  <si>
+    <t>FIXD-3</t>
+  </si>
+  <si>
+    <t>LoveCollage-2</t>
+  </si>
+  <si>
+    <t>WhatsAllBusiness-2</t>
+  </si>
+  <si>
+    <t>Zapya-4</t>
+  </si>
+  <si>
+    <t>CarBit-2</t>
+  </si>
+  <si>
+    <t>CarBit-1</t>
+  </si>
+  <si>
+    <t>CarBit-3</t>
+  </si>
+  <si>
+    <t>FIXD-4</t>
+  </si>
+  <si>
+    <t>HelloKittyNail-3</t>
+  </si>
+  <si>
+    <t>VirusShare</t>
+  </si>
+  <si>
+    <t>Cupcake-4</t>
+  </si>
+  <si>
+    <t>HelloKittyNail-1</t>
+  </si>
+  <si>
+    <t>HelloKittyNail-2</t>
+  </si>
+  <si>
+    <t>CleanHouse-3</t>
+  </si>
+  <si>
+    <t>LoveCollage-1</t>
+  </si>
+  <si>
+    <t>CleanHouse-1</t>
+  </si>
+  <si>
+    <t>Okuru-2</t>
+  </si>
+  <si>
+    <t>Browser-3</t>
+  </si>
+  <si>
+    <t>Browser-2</t>
+  </si>
+  <si>
+    <t>Coeur-1</t>
+  </si>
+  <si>
+    <t>Ghost-1</t>
+  </si>
+  <si>
+    <t>Browser-1</t>
+  </si>
+  <si>
+    <t>Communication-2</t>
+  </si>
+  <si>
+    <t>Communication-1</t>
+  </si>
+  <si>
+    <t>CraftElements-2</t>
+  </si>
+  <si>
+    <t>CraftElements-1</t>
+  </si>
+  <si>
+    <t>CraftElements-3</t>
+  </si>
+  <si>
+    <t>FindAndCall-3</t>
+  </si>
+  <si>
+    <t>DroidSheep-1</t>
+  </si>
+  <si>
+    <t>FindAndCall-1</t>
+  </si>
+  <si>
+    <t>FindAndCall-2</t>
+  </si>
+  <si>
+    <t>Flashlight-3</t>
+  </si>
+  <si>
+    <t>Flashlight-2</t>
+  </si>
+  <si>
+    <t>NinjaFight -2</t>
+  </si>
+  <si>
+    <t>USAPresidents -2</t>
   </si>
 </sst>
 </file>
@@ -417,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E344C3-4DBA-D642-85F3-1C44334BCA5C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,6 +875,972 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30">
+        <v>2020</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>2020</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35">
+        <v>2020</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37">
+        <v>2020</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38">
+        <v>2020</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40">
+        <v>2020</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42">
+        <v>2020</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44">
+        <v>2020</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45">
+        <v>2020</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46">
+        <v>2020</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55">
+        <v>2022</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56">
+        <v>2022</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57">
+        <v>2022</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58">
+        <v>2022</v>
+      </c>
+      <c r="D58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60">
+        <v>2022</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61">
+        <v>2022</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>2022</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63">
+        <v>2022</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64">
+        <v>2022</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65">
+        <v>2022</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>2022</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>2022</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68">
+        <v>2022</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70">
+        <v>2022</v>
+      </c>
+      <c r="D70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71">
+        <v>2022</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
